--- a/outputs/c/_cheese_both.xlsx
+++ b/outputs/c/_cheese_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="184">
   <si>
     <t>participant</t>
   </si>
@@ -561,13 +561,16 @@
     <t>fl</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>stove</t>
   </si>
   <si>
     <t>grated</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1384,22 +1387,10 @@
   <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="A12:Q15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -1436,10 +1427,10 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -1776,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
@@ -2410,7 +2401,7 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
         <v>23</v>
@@ -2478,7 +2469,7 @@
         <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
         <v>23</v>
@@ -2490,7 +2481,7 @@
         <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -2528,7 +2519,7 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
         <v>23</v>
@@ -2537,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>1</v>
